--- a/medicine/Enfance/Nadine_Soubrouillard/Nadine_Soubrouillard.xlsx
+++ b/medicine/Enfance/Nadine_Soubrouillard/Nadine_Soubrouillard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nadine Soubrouillard, née à Metz en 1961, est une illustratrice de livres pour enfants[1] et poétesse française.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nadine Soubrouillard, née à Metz en 1961, est une illustratrice de livres pour enfants et poétesse française.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1981, Nadine Soubrouillard s'installe à Strasbourg, où elle obtient en 1985 un diplôme national supérieur des arts appliqués de l'École supérieure des arts décoratifs de Strasbourg[2], département illustration. Elle commence à travailler pour le magazine Mikado et la publicité. 
-Elle poursuit sa carrière dans l'édition jeunesse chez Bordas, Casterman, Fleurus, Hatier, le Seuil, Nathan, Rouge et Or, le Seuil, les éditions du Signe, tout en collaborant avec la presse écrite[2]. 
-Depuis 1998, Nadine Soubrouillard est auteure littéraire et éditrice[3]. Elle développe également une production de plasticienne.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1981, Nadine Soubrouillard s'installe à Strasbourg, où elle obtient en 1985 un diplôme national supérieur des arts appliqués de l'École supérieure des arts décoratifs de Strasbourg, département illustration. Elle commence à travailler pour le magazine Mikado et la publicité. 
+Elle poursuit sa carrière dans l'édition jeunesse chez Bordas, Casterman, Fleurus, Hatier, le Seuil, Nathan, Rouge et Or, le Seuil, les éditions du Signe, tout en collaborant avec la presse écrite. 
+Depuis 1998, Nadine Soubrouillard est auteure littéraire et éditrice. Elle développe également une production de plasticienne.
 En 2009, elle obtient un diplôme d’art-thérapie à la faculté de médecine et de pharmacie de Poitiers. Elle exerce à Strasbourg.
 </t>
         </is>
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Illustration jeunesse (hors coéditions)
-Armand Colin Bourrelier :
+          <t>Illustration jeunesse (hors coéditions)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Armand Colin Bourrelier :
 Am stram gram CE2, 1985
 Bayard Presse :
 Pomme d’Api Soleil, collection Éveil religieux, N° 7, 1997
@@ -689,15 +708,83 @@
 Les 5-7 ans vers Noël, magazine d’éveil religieux, 1995
 Les 5-7 ans vers Pâques, magazine d’éveil religieux, 1994
 Chemin de croix, magazine d’éveil religieux, 1993
-La messe une fête, magazine d’éveil religieux, 1993
-Poésie
-Solo, n°78, Strasbourg, Revue alsacienne de littérature, 2002.
+La messe une fête, magazine d’éveil religieux, 1993</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nadine_Soubrouillard</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nadine_Soubrouillard</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Solo, n°78, Strasbourg, Revue alsacienne de littérature, 2002.
 Éloge du trébuchement, Strasbourg, Lieux-dits, collection « Bas de page », 2001.
 « Becs », Compresse, n°&amp;, Strasbourg, Sylvie Villaume, 2002.
 « Géométries par moi, géométrie par l’axe », Compresse, n° petit carré, Strasbourg, Sylvie Villaume, 2000.
-« M », Compresse, ° XXL, Strasbourg, Sylvie Villaume, 1999.
-Strasbourg, Soub Édition, Collection « Les introuvables »
-Et ce n'est qu'en entrant, Marc Syren, 2016
+« M », Compresse, ° XXL, Strasbourg, Sylvie Villaume, 1999.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nadine_Soubrouillard</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nadine_Soubrouillard</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Strasbourg, Soub Édition, Collection « Les introuvables »</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Et ce n'est qu'en entrant, Marc Syren, 2016
 Grimper dans les arbres, Biographie de Lucienne, Nadine Soubrouillard, 2015
 Trop loin, Nadine Soubrouillard, 2013
 Scènes de méninges, Pierre Zeidler, 2007
